--- a/biology/Botanique/Aphyllie/Aphyllie.xlsx
+++ b/biology/Botanique/Aphyllie/Aphyllie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’aphyllie désigne chez une plante (dite aphylle) une forte réduction de la taille des feuilles, voire leur quasi-disparition ou leur disparition totale. Elle est une des adaptations diverses au xérophytisme : la diminution de la surface foliaire permet une réduction des surfaces évaporantes, donc une consommation plus faible en eau.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mot apparu dans la langue française vers le XVIIe siècle. Du grec "a" = "dépourvu de" et "phullon" = "feuille".
 </t>
@@ -542,10 +556,12 @@
           <t>Absence réelle ou apparente</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines plantes grasses sont constituées de tiges constamment dépourvues de feuilles (notamment des Cactaceae comme l'Echinocactus Otionis Lehm).
-L'absence de feuilles n'est pas toujours réelle mais apparente seulement. En effet, les appendices foliacés de certaines plantes peuvent être soudés à la tige, représentés par des écailles plus ou moins réduites (exemples: Cuscute, Petit Houx). D'autres n'ont des feuilles que pendant une période déterminée de leur existence (exemple : genêts tel que Cytisus purgans, l'Opuntia)[1].
+L'absence de feuilles n'est pas toujours réelle mais apparente seulement. En effet, les appendices foliacés de certaines plantes peuvent être soudés à la tige, représentés par des écailles plus ou moins réduites (exemples: Cuscute, Petit Houx). D'autres n'ont des feuilles que pendant une période déterminée de leur existence (exemple : genêts tel que Cytisus purgans, l'Opuntia).
 </t>
         </is>
       </c>
